--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/106.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/106.xlsx
@@ -479,13 +479,13 @@
         <v>-15.03742670515986</v>
       </c>
       <c r="E2" t="n">
-        <v>-15.90029716266241</v>
+        <v>-14.56866858430705</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.75426108335984</v>
+        <v>-5.630884459632026</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.408502911407966</v>
+        <v>-7.042286963034835</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.75212220091424</v>
       </c>
       <c r="E3" t="n">
-        <v>-15.80183256436274</v>
+        <v>-14.52707291388334</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.096540454112557</v>
+        <v>-5.709367686866611</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.627828648464638</v>
+        <v>-7.239783284430731</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.51154086406224</v>
       </c>
       <c r="E4" t="n">
-        <v>-16.03118076549659</v>
+        <v>-14.82972199497284</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.242633757309709</v>
+        <v>-5.774269253024907</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.402034755323037</v>
+        <v>-7.042531413378181</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.36236248535953</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.85715656606875</v>
+        <v>-14.67577205774056</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.681889114708898</v>
+        <v>-5.385348756761823</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.351448201271069</v>
+        <v>-6.988170546024953</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.29114345421389</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.98271604042486</v>
+        <v>-14.77926744410628</v>
       </c>
       <c r="F6" t="n">
-        <v>-4.692102250053884</v>
+        <v>-5.331467012081553</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.077629593675763</v>
+        <v>-6.957966261601153</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.30306874727394</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.4408599849166</v>
+        <v>-15.12830831135594</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.765559578229281</v>
+        <v>-5.228773422842004</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.476100855791149</v>
+        <v>-6.733384842162548</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.37806040850904</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.73840494283704</v>
+        <v>-15.38587586012562</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.707815518124149</v>
+        <v>-5.165186999530909</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.434583409477307</v>
+        <v>-6.775205406902138</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.50023968000498</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.82610394801576</v>
+        <v>-15.62413672077785</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.376575524876928</v>
+        <v>-4.909047040766368</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.040128557440875</v>
+        <v>-6.380814111954976</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.63570019979083</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.17224074518647</v>
+        <v>-15.97703501444551</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.168225608236479</v>
+        <v>-4.749934312282621</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.77930493009783</v>
+        <v>-6.336881496248878</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-14.75532629851236</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.18443881731942</v>
+        <v>-16.10130867999562</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.478418426921633</v>
+        <v>-4.866331787770132</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.221376355452363</v>
+        <v>-5.956179420529079</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.82858657345532</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.57295841501942</v>
+        <v>-16.5269651738567</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.929329176691548</v>
+        <v>-4.536230933122901</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.961266523111886</v>
+        <v>-5.849535513741063</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.8383160513442</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.98736530407973</v>
+        <v>-16.88764187744962</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.737543215316208</v>
+        <v>-4.270019620212516</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.170550240063915</v>
+        <v>-6.010657624047112</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.78172670928695</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.0596297145796</v>
+        <v>-17.08310437198888</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.313754322078287</v>
+        <v>-3.962139301775414</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.883844210367421</v>
+        <v>-5.788344703794755</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-14.66921011945745</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.17530361705081</v>
+        <v>-17.29255920418125</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.124745316603355</v>
+        <v>-3.827867617182462</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.623348146484459</v>
+        <v>-5.53528481935637</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-14.52772622189021</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.56297252755596</v>
+        <v>-17.72811593694783</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.716527910236557</v>
+        <v>-3.360126552210975</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.373133664042619</v>
+        <v>-5.201013641851662</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-14.3833893038206</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.36654925222957</v>
+        <v>-18.37105456299522</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.519774717884432</v>
+        <v>-3.187925952344496</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.342939157632553</v>
+        <v>-5.150353752696689</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-14.2670026043676</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.81916861896169</v>
+        <v>-18.85270974150994</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.210129467968374</v>
+        <v>-2.812464891986029</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.150224284952499</v>
+        <v>-4.912298230332866</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-14.19496074293318</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.1239884191001</v>
+        <v>-19.27660130389207</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.921384722408377</v>
+        <v>-2.528570041238012</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.863161357754721</v>
+        <v>-4.635194210122994</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-14.18522982741888</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.72833811394693</v>
+        <v>-19.6952176278648</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.740232350968578</v>
+        <v>-2.152972088687271</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.912227430671079</v>
+        <v>-4.597827530639163</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-14.2394130714714</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.32004972604278</v>
+        <v>-20.21710933289423</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.584698375511412</v>
+        <v>-1.939078038259742</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.994783200625805</v>
+        <v>-4.56231867376476</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-14.36798360442876</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.65592449779983</v>
+        <v>-20.58255770718926</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.382469495468342</v>
+        <v>-1.695893947692526</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.766442134906542</v>
+        <v>-4.406334909675839</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-14.55821401925226</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.06241119573574</v>
+        <v>-20.93700581603373</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.104109000493673</v>
+        <v>-1.538580373735803</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.677075978386204</v>
+        <v>-4.311908631048243</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-14.80149713818935</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.40698351070904</v>
+        <v>-21.38925361824396</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.8273520997713514</v>
+        <v>-1.400842383274209</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.751667556154725</v>
+        <v>-4.382012100512936</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-15.06810045768582</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.9180998446038</v>
+        <v>-21.83189452196071</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.7232504765541314</v>
+        <v>-1.19797793233844</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.811225437807483</v>
+        <v>-4.403753514050107</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-15.34065797634522</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.88150073919807</v>
+        <v>-21.72309456314438</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6613360935915206</v>
+        <v>-1.012009889134729</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.828596079205632</v>
+        <v>-4.487795542092376</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-15.59021705668907</v>
       </c>
       <c r="E27" t="n">
-        <v>-23.33083469331563</v>
+        <v>-22.03357583323468</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5338210164886449</v>
+        <v>-0.8765355088525157</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.880766671482482</v>
+        <v>-4.490831615356729</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-15.80154441575034</v>
       </c>
       <c r="E28" t="n">
-        <v>-23.1444999745969</v>
+        <v>-22.04571523728523</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.29198140280983</v>
+        <v>-0.6754262113819695</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.928962501176529</v>
+        <v>-4.44411226573649</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-15.95128753022524</v>
       </c>
       <c r="E29" t="n">
-        <v>-23.41979506226601</v>
+        <v>-22.25488161807245</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5489524927417466</v>
+        <v>-0.7514209341212954</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.725296253114586</v>
+        <v>-4.207327885158065</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-16.02873270075518</v>
       </c>
       <c r="E30" t="n">
-        <v>-23.57904468294203</v>
+        <v>-22.42009093811924</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2468754254556727</v>
+        <v>-0.5532499297777649</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.966803414326451</v>
+        <v>-4.427866095917732</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-16.02369107055771</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.464172577597</v>
+        <v>-22.42333723867887</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.492655578669221</v>
+        <v>-0.7426402777883161</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.363245738592067</v>
+        <v>-4.208584359922862</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-15.93528213766775</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.51849922190216</v>
+        <v>-22.34948390094726</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.4519839305433555</v>
+        <v>-0.6340847693153366</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.417318154540146</v>
+        <v>-4.189610124272366</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-15.76756618620864</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.07071997196828</v>
+        <v>-22.07048783507989</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.4335670416756869</v>
+        <v>-0.629748220224383</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.142291962248712</v>
+        <v>-4.022234974183532</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-15.52599283136565</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.86832486569174</v>
+        <v>-21.8764333745183</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.752931637243172</v>
+        <v>-0.7636630073160504</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.516156852802915</v>
+        <v>-3.631265984043211</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-15.22451895797542</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.49042419090668</v>
+        <v>-21.71684152336159</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.6694518449905993</v>
+        <v>-0.7601918124405408</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.289786056851019</v>
+        <v>-3.528538171755594</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-14.86927397957957</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.67347838601771</v>
+        <v>-21.77115838965302</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.068023240808974</v>
+        <v>-0.9208299110667653</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.18813871508099</v>
+        <v>-3.473385285289927</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-14.47714163575347</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.18524260426011</v>
+        <v>-21.28735204811685</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.138542275857355</v>
+        <v>-1.031321466259043</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.03446745124012</v>
+        <v>-3.396055863675933</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-14.05065657521986</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.12094238594645</v>
+        <v>-21.24638705957897</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.446090141827507</v>
+        <v>-1.276783834026242</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.505472019233056</v>
+        <v>-3.045675408544739</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-13.60433711279774</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.55330424366329</v>
+        <v>-20.62328313439066</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.472226772538034</v>
+        <v>-1.219694900841276</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.421767332664605</v>
+        <v>-2.973098101605387</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-13.13628604364697</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.28299105399156</v>
+        <v>-20.42246717733213</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.769664172307405</v>
+        <v>-1.511695724974638</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.253976616992084</v>
+        <v>-2.83349251052063</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-12.65806413716368</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.7238793396843</v>
+        <v>-19.88522399074058</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.585964628289943</v>
+        <v>-1.333471868648121</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.076994568409763</v>
+        <v>-2.505200588414159</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-12.16699984785343</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.34671201592928</v>
+        <v>-19.37913355590501</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.657925920364064</v>
+        <v>-1.412336438418326</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.7666501905117354</v>
+        <v>-2.158442887371349</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-11.67426053348948</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.0583486129049</v>
+        <v>-19.02355119746742</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.943610147625372</v>
+        <v>-1.519909256511055</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.5610234506961597</v>
+        <v>-1.970265013063793</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-11.18061205940869</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.72352008861737</v>
+        <v>-18.60176190803807</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.958863849050147</v>
+        <v>-1.467049314265971</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.6687136049536951</v>
+        <v>-1.992118873758902</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.69864605152656</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.33670675431392</v>
+        <v>-18.31270915504545</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.900503774079783</v>
+        <v>-1.525507169373673</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.5932371169422622</v>
+        <v>-1.681750050826541</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.23366113271788</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.97349754516394</v>
+        <v>-17.8193692501188</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.854429773365977</v>
+        <v>-1.535524744443982</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.5504387508292887</v>
+        <v>-1.721893686210779</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.797417143555069</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.59880894789045</v>
+        <v>-17.42974473686688</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.896910354032601</v>
+        <v>-1.633627556235497</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.6945960073071429</v>
+        <v>-1.77781903576142</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.396599552497806</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.26844408687241</v>
+        <v>-16.99963435775004</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.926224839206623</v>
+        <v>-1.721893686210779</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.56588801252874</v>
+        <v>-1.681187815036846</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.036762861612397</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.94345713340797</v>
+        <v>-16.75519868142489</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.93877980884086</v>
+        <v>-1.708209355990284</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.4831269042856037</v>
+        <v>-1.697409539821269</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.719951056719758</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.65689777391748</v>
+        <v>-16.31215199013819</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.915434801051342</v>
+        <v>-1.694275686419577</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.883477898603535</v>
+        <v>-1.873550679222481</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.44127619866226</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.53742511311068</v>
+        <v>-16.1495142877034</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.673560964324458</v>
+        <v>-1.55584345698288</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.7693244772679378</v>
+        <v>-1.753911792182205</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.197489585722398</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.99500446824707</v>
+        <v>-15.74742280694085</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.591567430159428</v>
+        <v>-1.569972686828264</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.623084503864778</v>
+        <v>-1.651443097258535</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.977045433635397</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.84553775031175</v>
+        <v>-15.77697196444448</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.668231946839521</v>
+        <v>-1.625135351307666</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.810362800908822</v>
+        <v>-1.809661137485637</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.778554212026644</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.37166098172228</v>
+        <v>-15.44008516826597</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.50292973566226</v>
+        <v>-1.554875433623231</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.6080703637764822</v>
+        <v>-1.657539688821578</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.592600760635934</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.01610306831903</v>
+        <v>-15.09395326010213</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.44701905313222</v>
+        <v>-1.490086314622874</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.03749139292509</v>
+        <v>-2.018969299471999</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.420244394603215</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.92445374559184</v>
+        <v>-15.01479046091304</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.630283475538527</v>
+        <v>-1.613181729518059</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.8579915058063073</v>
+        <v>-1.887875469342542</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.253440338883719</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.90857914029496</v>
+        <v>-14.92160599002964</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.591498984063291</v>
+        <v>-1.66439896545586</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.9709128974114419</v>
+        <v>-1.86158727941914</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.094229052303804</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.23565623513279</v>
+        <v>-14.54417465990381</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.643117118564179</v>
+        <v>-1.554894989650699</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.326402364718562</v>
+        <v>-2.181171880295637</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.936327945839851</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.25105171775671</v>
+        <v>-14.57733190447522</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.81293677208647</v>
+        <v>-1.607520259566171</v>
       </c>
       <c r="G59" t="n">
-        <v>-1.322178262785547</v>
+        <v>-2.319036984935771</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.782793743964945</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.90995059765892</v>
+        <v>-14.45941883685897</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.69190940709599</v>
+        <v>-1.587582889562892</v>
       </c>
       <c r="G60" t="n">
-        <v>-1.299454158868127</v>
+        <v>-2.191981474478386</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.628031904178486</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.74195454369799</v>
+        <v>-14.45112708121268</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.644456706445714</v>
+        <v>-1.649741722868849</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.506987611361799</v>
+        <v>-2.480188429283022</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.473514678338864</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.58381472758076</v>
+        <v>-14.22994841055345</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.674973887308997</v>
+        <v>-1.603149487427149</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.821776096501852</v>
+        <v>-2.746301962056069</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.313326554248769</v>
       </c>
       <c r="E63" t="n">
-        <v>-14.54204305290983</v>
+        <v>-14.29278192680704</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.752919323788222</v>
+        <v>-1.695928170740594</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.043424111820308</v>
+        <v>-2.899851000725267</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.148458404262363</v>
       </c>
       <c r="E64" t="n">
-        <v>-14.66721629572346</v>
+        <v>-14.4023005696328</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.935313502972218</v>
+        <v>-1.718510493458874</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.23584075508148</v>
+        <v>-3.127380491304622</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.975306595452693</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.60946245760459</v>
+        <v>-14.42648159759657</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.152380518856374</v>
+        <v>-1.972846408689524</v>
       </c>
       <c r="G65" t="n">
-        <v>-2.249471306226439</v>
+        <v>-3.184894768087009</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.795988316011891</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.74436482408337</v>
+        <v>-14.45792768976456</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.027774400839313</v>
+        <v>-1.891366220245519</v>
       </c>
       <c r="G66" t="n">
-        <v>-2.691300634803276</v>
+        <v>-3.582234134174921</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.610094132130141</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.84577749352379</v>
+        <v>-14.62032583086287</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.330257255695341</v>
+        <v>-2.102566427889378</v>
       </c>
       <c r="G67" t="n">
-        <v>-2.82159266780656</v>
+        <v>-3.705789115715596</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.421143203805284</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.01191572487529</v>
+        <v>-14.73460147737014</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.431552588970952</v>
+        <v>-2.175505521336882</v>
       </c>
       <c r="G68" t="n">
-        <v>-2.701147094633243</v>
+        <v>-3.628880148692156</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.232290244262789</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.15887927129476</v>
+        <v>-14.9246860643558</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.439409223006084</v>
+        <v>-2.191947251430317</v>
       </c>
       <c r="G69" t="n">
-        <v>-2.719368423226235</v>
+        <v>-3.772866289929669</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.047125790847907</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.30374054476145</v>
+        <v>-14.92859238084246</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.567642984118396</v>
+        <v>-2.290059841235566</v>
       </c>
       <c r="G70" t="n">
-        <v>-2.700447966651274</v>
+        <v>-3.650034881405297</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.869531851255406</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.4735064192082</v>
+        <v>-15.10194189732267</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.600506888277799</v>
+        <v>-2.350165291657419</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.942424472522362</v>
+        <v>-3.838667433351477</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.699837714021123</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.74510052867906</v>
+        <v>-15.42023091137943</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.847734187523954</v>
+        <v>-2.487776167940474</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.00466152993819</v>
+        <v>-3.932355471942168</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.540386517930409</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.79093496805639</v>
+        <v>-15.4123742773443</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.836166797276833</v>
+        <v>-2.564074009105549</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.867847561774442</v>
+        <v>-3.751677334168459</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.388860383385401</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.26483618168019</v>
+        <v>-15.79668444013188</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.016590706693462</v>
+        <v>-2.750687401215692</v>
       </c>
       <c r="G74" t="n">
-        <v>-2.659962100786351</v>
+        <v>-3.694559066942292</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.247523300695115</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.34691282896196</v>
+        <v>-15.86663146137683</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.088009319005356</v>
+        <v>-2.957687951960871</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.725465014789278</v>
+        <v>-3.585759108125967</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.113569279351031</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.69020422413612</v>
+        <v>-16.26668422627588</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.066043011152307</v>
+        <v>-3.006998475220575</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.691608642235892</v>
+        <v>-3.595889130354214</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.988309899331471</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.2049970911948</v>
+        <v>-16.67748791727528</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.246574478720008</v>
+        <v>-3.083516321694661</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.394371691748064</v>
+        <v>-3.392315773422743</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.870266019346359</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.91293506353782</v>
+        <v>-17.25439072757124</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.515709417736809</v>
+        <v>-3.311901388475726</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.208120086146072</v>
+        <v>-3.259017001196307</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.762672515599991</v>
       </c>
       <c r="E79" t="n">
-        <v>-18.3806174604269</v>
+        <v>-17.77830159243672</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.459407614657417</v>
+        <v>-3.288693272878481</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.038153762417774</v>
+        <v>-3.118106045278084</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.664479053344984</v>
       </c>
       <c r="E80" t="n">
-        <v>-19.02123869721937</v>
+        <v>-18.33974536301949</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.593933527607448</v>
+        <v>-3.412566039865505</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.783343613521033</v>
+        <v>-2.893392622654072</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.580862189178604</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.90837343825542</v>
+        <v>-18.97229484947468</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.659866674214663</v>
+        <v>-3.554498798218912</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.398143651483672</v>
+        <v>-2.612000943421916</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.5136307621348</v>
       </c>
       <c r="E82" t="n">
-        <v>-20.82215815572303</v>
+        <v>-19.81293024619951</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.6500788824671</v>
+        <v>-3.581857680646169</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.340233365145064</v>
+        <v>-2.538284497882572</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.470681150057846</v>
       </c>
       <c r="E83" t="n">
-        <v>-21.62111965791427</v>
+        <v>-20.47151858322789</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.632419789663803</v>
+        <v>-3.535001438833655</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.065148504771228</v>
+        <v>-2.272571863672612</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.456205486325907</v>
       </c>
       <c r="E84" t="n">
-        <v>-22.76041470612519</v>
+        <v>-21.47031335209741</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.645424547929797</v>
+        <v>-3.460727646511484</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.9026965845973777</v>
+        <v>-2.105783394407808</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.480753581085584</v>
       </c>
       <c r="E85" t="n">
-        <v>-23.58417814015229</v>
+        <v>-22.26156977946639</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.468163825956061</v>
+        <v>-3.396349204087948</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5413989771323631</v>
+        <v>-1.680914030652298</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.549921722051012</v>
       </c>
       <c r="E86" t="n">
-        <v>-25.17581388170392</v>
+        <v>-23.71512530007574</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.527369699114401</v>
+        <v>-3.340946978272068</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2295732301536607</v>
+        <v>-1.427492359705762</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.676622328409669</v>
       </c>
       <c r="E87" t="n">
-        <v>-26.0877114425209</v>
+        <v>-24.76992364260578</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.261344168464958</v>
+        <v>-3.187808616179691</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01805034805658548</v>
+        <v>-1.26643869549585</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.866331560570624</v>
       </c>
       <c r="E88" t="n">
-        <v>-27.51061533457812</v>
+        <v>-26.20814234867361</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.110943650218054</v>
+        <v>-3.091162728434516</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1561205215772596</v>
+        <v>-1.05783943950519</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.132689476757777</v>
       </c>
       <c r="E89" t="n">
-        <v>-28.88544562211298</v>
+        <v>-27.5934448889174</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.20269075308258</v>
+        <v>-3.084181226628561</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3845740344544613</v>
+        <v>-0.8457396545978185</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.477121196354006</v>
       </c>
       <c r="E90" t="n">
-        <v>-30.62083038806907</v>
+        <v>-29.29661598862739</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.248994537119131</v>
+        <v>-3.114370844031761</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1231392812530513</v>
+        <v>-0.9822162812877493</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.910050542747688</v>
       </c>
       <c r="E91" t="n">
-        <v>-32.17628992330896</v>
+        <v>-30.83614958399831</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.372754856948216</v>
+        <v>-3.169817070909444</v>
       </c>
       <c r="G91" t="n">
-        <v>0.227143124332933</v>
+        <v>-0.8760466081658242</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.424988975273495</v>
       </c>
       <c r="E92" t="n">
-        <v>-33.96080431927069</v>
+        <v>-32.57670203021273</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.053145811037385</v>
+        <v>-3.007076699330446</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1071476091992435</v>
+        <v>-1.273957988057165</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.027512759051295</v>
       </c>
       <c r="E93" t="n">
-        <v>-36.00522320928448</v>
+        <v>-34.58546294864268</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.043343352269221</v>
+        <v>-2.972477197733288</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1675121769850424</v>
+        <v>-1.191304437965101</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.70307747108492</v>
       </c>
       <c r="E94" t="n">
-        <v>-38.10369740372231</v>
+        <v>-36.68821502408906</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.162410225506068</v>
+        <v>-3.133066406290844</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.2154488893151434</v>
+        <v>-1.271039250957617</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.447940069961391</v>
       </c>
       <c r="E95" t="n">
-        <v>-40.38586625317074</v>
+        <v>-38.80148824231305</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.167856579155811</v>
+        <v>-3.165074734248536</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.5749962323218025</v>
+        <v>-1.681314929215386</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.24953607375301</v>
       </c>
       <c r="E96" t="n">
-        <v>-42.29463231415168</v>
+        <v>-40.74327465567313</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.249326989586081</v>
+        <v>-3.219034703038676</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.9493328211008794</v>
+        <v>-2.038794222317339</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.088347938877217</v>
       </c>
       <c r="E97" t="n">
-        <v>-44.51721150340271</v>
+        <v>-42.89998669990965</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.241871254114036</v>
+        <v>-3.121743466387069</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.203292282802776</v>
+        <v>-2.346126971985347</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.965989280007907</v>
       </c>
       <c r="E98" t="n">
-        <v>-46.55903921977704</v>
+        <v>-45.14586445138497</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.310068010900633</v>
+        <v>-3.134655333522591</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.507178282629609</v>
+        <v>-2.728584201170369</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.83978280689918</v>
       </c>
       <c r="E99" t="n">
-        <v>-48.62506507563916</v>
+        <v>-47.28408260489567</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.057888147698293</v>
+        <v>-2.92623208177914</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.912912073508013</v>
+        <v>-3.110190743160549</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.74840476874733</v>
       </c>
       <c r="E100" t="n">
-        <v>-51.14261271619178</v>
+        <v>-49.76157216768422</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.208513560261075</v>
+        <v>-2.957624394871601</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.560627259264373</v>
+        <v>-3.857436330713564</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.60590248627924</v>
       </c>
       <c r="E101" t="n">
-        <v>-53.14377245119538</v>
+        <v>-51.99926083265746</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.197532850837984</v>
+        <v>-2.907507185478856</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.077546844310158</v>
+        <v>-4.205347837376965</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-13.5423349866848</v>
       </c>
       <c r="E102" t="n">
-        <v>-55.24260232088279</v>
+        <v>-54.22814195175995</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.081932283469781</v>
+        <v>-2.849919573593465</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.621908424899936</v>
+        <v>-4.858763605140147</v>
       </c>
     </row>
   </sheetData>
